--- a/outputs/20250601_185319/sentence_report/parsed_DJIFlightRecord_2025-05-12_[08-01-12]_sentence.xlsx
+++ b/outputs/20250601_185319/sentence_report/parsed_DJIFlightRecord_2025-05-12_[08-01-12]_sentence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G378"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>E23</t>
+          <t>E19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>E26</t>
+          <t>E27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>E17</t>
+          <t>E18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Set Return to Home (RTH) altitude to 100 m (328 ft).;</t>
+          <t>Set Return to Home (RTH) altitude to 100</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N33</t>
+          <t>N23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Set maximum flight altitude to 500 m (1640 ft).</t>
+          <t>m</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N27</t>
+          <t>N21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -651,22 +651,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8:01:14.22 AM</t>
+          <t>8:01:13.42 AM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Flight mode changed to Manual Takeoff.</t>
+          <t>Data Recorder File Index is 83.; Set Return to Home (RTH) altitude to 100 m (328 ft).; Set maximum flight altitude to 500 m (1640 ft).</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Flight mode changed to Manual Takeoff.</t>
+          <t>(328 ft).;</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>E30</t>
+          <t>N8</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -686,22 +686,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8:01:16.42 AM</t>
+          <t>8:01:13.42 AM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Home point updated.; Flight mode changed to P-GPS.</t>
+          <t>Data Recorder File Index is 83.; Set Return to Home (RTH) altitude to 100 m (328 ft).; Set maximum flight altitude to 500 m (1640 ft).</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Home point updated.;</t>
+          <t>Set maximum flight altitude to 500</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>E25</t>
+          <t>N31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -721,22 +721,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8:01:16.42 AM</t>
+          <t>8:01:13.42 AM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Home point updated.; Flight mode changed to P-GPS.</t>
+          <t>Data Recorder File Index is 83.; Set Return to Home (RTH) altitude to 100 m (328 ft).; Set maximum flight altitude to 500 m (1640 ft).</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>m</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>N21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -756,27 +756,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8:01:50.02 AM</t>
+          <t>8:01:13.42 AM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Data Recorder File Index is 83.; Set Return to Home (RTH) altitude to 100 m (328 ft).; Set maximum flight altitude to 500 m (1640 ft).</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>(1640 ft).</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>N8</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -791,27 +791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8:01:51.02 AM</t>
+          <t>8:01:14.22 AM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Flight mode changed to Manual Takeoff.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.;</t>
+          <t>Flight mode changed to Manual Takeoff.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8:01:51.02 AM</t>
+          <t>8:01:16.42 AM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Home point updated.; Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Home point updated.;</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E16</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -861,27 +861,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8:01:51.02 AM</t>
+          <t>8:01:16.42 AM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Home point updated.; Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -896,27 +896,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8:01:51.02 AM</t>
+          <t>8:01:50.02 AM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -931,22 +931,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8:01:51.22 AM</t>
+          <t>8:01:51.02 AM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Image transmission signal weak.;</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -966,27 +966,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8:01:54.02 AM</t>
+          <t>8:01:51.02 AM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8:01:54.62 AM</t>
+          <t>8:01:51.02 AM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8:01:54.62 AM</t>
+          <t>8:01:51.02 AM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1071,27 +1071,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8:01:54.62 AM</t>
+          <t>8:01:51.22 AM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1106,27 +1106,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8:01:54.62 AM</t>
+          <t>8:01:54.02 AM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1151,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aircraft returning to home.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Aircraft returning to home.;</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8:01:55.62 AM</t>
+          <t>8:01:54.62 AM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1316,27 +1316,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8:01:55.62 AM</t>
+          <t>8:01:54.62 AM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1351,27 +1351,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8:01:55.62 AM</t>
+          <t>8:01:54.62 AM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>RC signal lost.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No image transmission. Aircraft returning to home.;</t>
+          <t>RC signal lost.;</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1466,17 +1466,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Aircraft returning to home.;</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1536,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1561,27 +1561,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8:01:56.02 AM</t>
+          <t>8:01:55.62 AM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -1596,27 +1596,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>8:01:56.02 AM</t>
+          <t>8:01:55.62 AM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1631,27 +1631,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>8:01:56.02 AM</t>
+          <t>8:01:55.62 AM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1676,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -1746,17 +1746,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1781,17 +1781,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8:01:58.42 AM</t>
+          <t>8:01:56.02 AM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>8:01:58.42 AM</t>
+          <t>8:01:56.02 AM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1886,17 +1886,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1956,17 +1956,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Aircraft returning to home.;</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Aircraft returning to home.;</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -2026,17 +2026,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2096,17 +2096,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -2121,27 +2121,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>8:01:59.62 AM</t>
+          <t>8:01:58.42 AM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RTH ascending.; Controller triggered aircraft to descend. Auto RTH canceled.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>RTH ascending.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>E21</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -2166,17 +2166,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to descend.</t>
+          <t>RTH ascending.;</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>E32</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -2201,17 +2201,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Auto RTH canceled.</t>
+          <t>Controller triggered aircraft to descend.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E32</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -2226,22 +2226,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>8:02:00.42 AM</t>
+          <t>8:01:59.62 AM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>RTH ascending.; Controller triggered aircraft to descend. Auto RTH canceled.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>Auto RTH canceled.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2261,27 +2261,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>8:02:12.02 AM</t>
+          <t>8:02:00.42 AM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -2296,22 +2296,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>8:02:12.82 AM</t>
+          <t>8:02:12.02 AM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RC signal weak.; Image transmission signal weak.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>RC signal weak.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2341,17 +2341,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal weak.;</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -2366,22 +2366,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>8:02:14.02 AM</t>
+          <t>8:02:12.82 AM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>RC signal weak.; Image transmission signal weak.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>Image transmission signal weak.</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Image transmission signal weak.</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>8:02:15.82 AM</t>
+          <t>8:02:14.02 AM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>8:02:23.02 AM</t>
+          <t>8:02:15.82 AM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2471,22 +2471,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>8:02:40.02 AM</t>
+          <t>8:02:23.02 AM</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; RC signal weak.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Image transmission signal weak.;</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -2541,27 +2541,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>8:02:44.05 AM</t>
+          <t>8:02:40.02 AM</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Image transmission signal weak.; RC signal weak.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -2576,22 +2576,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>8:02:47.82 AM</t>
+          <t>8:02:44.05 AM</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2621,17 +2621,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Image transmission signal weak.;</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -2656,17 +2656,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -2691,17 +2691,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -2716,22 +2716,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>8:02:48.02 AM</t>
+          <t>8:02:47.82 AM</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2761,17 +2761,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -2786,27 +2786,27 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>8:02:53.22 AM</t>
+          <t>8:02:48.02 AM</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -2821,22 +2821,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>8:02:59.82 AM</t>
+          <t>8:02:53.22 AM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>8:03:11.02 AM</t>
+          <t>8:02:59.82 AM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2891,22 +2891,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>8:03:11.82 AM</t>
+          <t>8:03:11.02 AM</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2936,17 +2936,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Image transmission signal weak.;</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -2971,17 +2971,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -3006,17 +3006,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -3031,27 +3031,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>8:03:14.82 AM</t>
+          <t>8:03:11.82 AM</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -3066,27 +3066,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>8:03:15.42 AM</t>
+          <t>8:03:14.82 AM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3111,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>Aircraft returning to home.;</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Aircraft returning to home.;</t>
+          <t>Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3251,17 +3251,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3321,17 +3321,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Flight mode changed to Go Home.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>E28</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3426,17 +3426,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>Aircraft returning to home.;</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3496,17 +3496,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3531,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -3566,17 +3566,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Aircraft returning to home.;</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -3601,17 +3601,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -3636,17 +3636,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>8:03:17.42 AM</t>
+          <t>8:03:18.42 AM</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3706,17 +3706,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Aircraft returning to home.;</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -3741,17 +3741,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Aircraft returning to home.;</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3906,27 +3906,27 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8:03:18.42 AM</t>
+          <t>8:03:19.82 AM</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>Controller triggered aircraft to descend. Auto RTH canceled.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
+          <t>Auto RTH canceled.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -3941,27 +3941,27 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8:03:18.42 AM</t>
+          <t>8:03:19.82 AM</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>Controller triggered aircraft to descend. Auto RTH canceled.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Controller triggered aircraft to descend.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>E32</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -3976,27 +3976,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>8:03:19.82 AM</t>
+          <t>8:03:20.62 AM</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to descend. Auto RTH canceled.</t>
+          <t>RTH ascending.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to descend.</t>
+          <t>RTH ascending.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>E32</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>8:03:19.82 AM</t>
+          <t>8:03:21.02 AM</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to descend. Auto RTH canceled.</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Auto RTH canceled.</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4046,27 +4046,27 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>8:03:20.62 AM</t>
+          <t>8:03:25.02 AM</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RTH ascending.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>RTH ascending.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>E21</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -4081,27 +4081,27 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>8:03:21.02 AM</t>
+          <t>8:03:25.42 AM</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -4116,22 +4116,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>8:03:25.02 AM</t>
+          <t>8:03:25.42 AM</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>Image transmission signal weak.</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Image transmission signal weak.</t>
-        </is>
-      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4186,22 +4186,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>8:03:25.42 AM</t>
+          <t>8:03:27.22 AM</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4221,27 +4221,27 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>8:03:25.42 AM</t>
+          <t>8:03:29.62 AM</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -4256,22 +4256,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>8:03:27.22 AM</t>
+          <t>8:03:30.02 AM</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4291,22 +4291,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>8:03:29.62 AM</t>
+          <t>8:03:34.42 AM</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Image transmission signal weak.; RC signal lost.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Image transmission signal weak.;</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4326,22 +4326,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>8:03:30.02 AM</t>
+          <t>8:03:34.42 AM</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Image transmission signal weak.; RC signal lost.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4361,27 +4361,27 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>8:03:34.42 AM</t>
+          <t>8:03:37.42 AM</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; RC signal lost.</t>
+          <t>RC signal lost.; No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.;</t>
+          <t>RC signal lost.;</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -4396,27 +4396,27 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>8:03:34.42 AM</t>
+          <t>8:03:37.42 AM</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; RC signal lost.</t>
+          <t>RC signal lost.; No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -4441,17 +4441,17 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>RC signal lost.;</t>
+          <t>Aircraft returning to home.;</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -4476,17 +4476,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -4511,17 +4511,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -4546,12 +4546,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4581,12 +4581,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>No image</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>E31</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4616,17 +4616,17 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>transmission.</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>E19</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -4641,22 +4641,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>8:03:37.42 AM</t>
+          <t>8:03:38.62 AM</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RC signal lost.; No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Aircraft returning to home.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4676,27 +4676,27 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>8:03:37.42 AM</t>
+          <t>8:03:38.62 AM</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RC signal lost.; No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal lost.;</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -4711,27 +4711,27 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>8:03:37.42 AM</t>
+          <t>8:03:38.62 AM</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RC signal lost.; No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
+          <t>Aircraft returning to home.;</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -4746,27 +4746,27 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>8:03:37.42 AM</t>
+          <t>8:03:38.62 AM</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>RC signal lost.; No image transmission. RTH.; Press Brake button to cancel RTH.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Flight mode changed to Go Home.</t>
+          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Flight mode changed to Go Home.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>E28</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -4791,12 +4791,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4861,17 +4861,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -4896,12 +4896,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>RC signal lost.;</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4921,27 +4921,27 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>8:03:38.62 AM</t>
+          <t>8:03:41.62 AM</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>RTH ascending.; Controller triggered aircraft to descend. Auto RTH canceled.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>No image transmission. Aircraft returning to home.;</t>
+          <t>RTH ascending.;</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -4956,22 +4956,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>8:03:38.62 AM</t>
+          <t>8:03:41.62 AM</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>RTH ascending.; Controller triggered aircraft to descend. Auto RTH canceled.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Controller triggered aircraft to descend.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E32</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4991,27 +4991,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>8:03:38.62 AM</t>
+          <t>8:03:41.62 AM</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>RTH ascending.; Controller triggered aircraft to descend. Auto RTH canceled.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
+          <t>Auto RTH canceled.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -5026,27 +5026,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>8:03:38.62 AM</t>
+          <t>8:03:42.42 AM</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Press Brake button to cancel RTH.; RC signal lost.; No image transmission. Aircraft returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; RTH in progress.</t>
+          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.; RTH ascending.; Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>No image transmission. RTH.;</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -5061,27 +5061,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>8:03:41.62 AM</t>
+          <t>8:03:42.42 AM</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RTH ascending.; Controller triggered aircraft to descend. Auto RTH canceled.</t>
+          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.; RTH ascending.; Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>RTH ascending.;</t>
+          <t>Controller triggered aircraft to descend.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>E21</t>
+          <t>E32</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -5096,27 +5096,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>8:03:41.62 AM</t>
+          <t>8:03:42.42 AM</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>RTH ascending.; Controller triggered aircraft to descend. Auto RTH canceled.</t>
+          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.; RTH ascending.; Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to descend.</t>
+          <t>Auto RTH canceled.;</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>E32</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -5131,22 +5131,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>8:03:41.62 AM</t>
+          <t>8:03:42.42 AM</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>RTH ascending.; Controller triggered aircraft to descend. Auto RTH canceled.</t>
+          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.; RTH ascending.; Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Auto RTH canceled.</t>
+          <t>Aircraft returning to home.;</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5176,17 +5176,17 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>RTH ascending.;</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5246,17 +5246,17 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to descend.</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>E32</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -5271,27 +5271,27 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>8:03:42.42 AM</t>
+          <t>8:03:43.42 AM</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.; RTH ascending.; Flight mode changed to P-GPS.</t>
+          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Auto RTH canceled.;</t>
+          <t>No image transmission. RTH.;</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -5306,27 +5306,27 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>8:03:42.42 AM</t>
+          <t>8:03:43.42 AM</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.; RTH ascending.; Flight mode changed to P-GPS.</t>
+          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Auto RTH canceled.;</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -5341,27 +5341,27 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>8:03:42.42 AM</t>
+          <t>8:03:43.42 AM</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.; RTH ascending.; Flight mode changed to P-GPS.</t>
+          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Aircraft returning to home.;</t>
+          <t>Controller triggered aircraft to descend.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E32</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -5376,27 +5376,27 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>8:03:42.42 AM</t>
+          <t>8:03:43.42 AM</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.; RTH ascending.; Flight mode changed to P-GPS.</t>
+          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>RTH ascending.;</t>
+          <t>No image transmission.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>E21</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -5411,22 +5411,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>8:03:42.42 AM</t>
+          <t>8:03:43.42 AM</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.; RTH ascending.; Flight mode changed to P-GPS.</t>
+          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>Aircraft returning to home.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5446,27 +5446,27 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>8:03:43.42 AM</t>
+          <t>8:03:45.02 AM</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -5481,27 +5481,27 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>8:03:43.42 AM</t>
+          <t>8:03:47.62 AM</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>RTH.;</t>
+          <t>Image transmission signal weak.;</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -5516,27 +5516,27 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>8:03:43.42 AM</t>
+          <t>8:03:47.62 AM</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to descend.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>E32</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -5551,27 +5551,27 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>8:03:43.42 AM</t>
+          <t>8:03:47.62 AM</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Auto RTH canceled.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -5586,22 +5586,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>8:03:43.42 AM</t>
+          <t>8:03:47.62 AM</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
+          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>No image transmission.</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5621,27 +5621,27 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>8:03:43.42 AM</t>
+          <t>8:03:50.62 AM</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>No image transmission. RTH.; Controller triggered aircraft to descend. Auto RTH canceled.; No image transmission. Aircraft returning to home.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Aircraft returning to home.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>8:03:45.02 AM</t>
+          <t>8:03:55.82 AM</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5691,22 +5691,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>8:03:47.62 AM</t>
+          <t>8:04:54.02 AM</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5726,27 +5726,27 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>8:03:47.62 AM</t>
+          <t>8:04:57.82 AM</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>8:03:47.62 AM</t>
+          <t>8:05:18.02 AM</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5796,27 +5796,27 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>8:03:47.62 AM</t>
+          <t>8:05:19.82 AM</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.; Aircraft braking.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -5831,27 +5831,27 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>8:03:50.62 AM</t>
+          <t>8:05:22.82 AM</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -5866,27 +5866,27 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>8:03:55.82 AM</t>
+          <t>8:05:23.02 AM</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -5901,27 +5901,27 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>8:04:54.02 AM</t>
+          <t>8:05:23.02 AM</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -5936,27 +5936,27 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>8:04:57.82 AM</t>
+          <t>8:05:25.02 AM</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal weak.; Aircraft braking.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal weak.;</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -5971,27 +5971,27 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>8:05:18.02 AM</t>
+          <t>8:05:25.02 AM</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal weak.; Aircraft braking.</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -6006,22 +6006,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>8:05:19.82 AM</t>
+          <t>8:05:25.22 AM</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6041,27 +6041,27 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>8:05:22.82 AM</t>
+          <t>8:05:25.82 AM</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -6076,27 +6076,27 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>8:05:23.02 AM</t>
+          <t>8:05:28.02 AM</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -6111,27 +6111,27 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>8:05:23.02 AM</t>
+          <t>8:05:31.02 AM</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -6146,12 +6146,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>8:05:25.02 AM</t>
+          <t>8:05:32.82 AM</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6181,17 +6181,17 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>8:05:25.02 AM</t>
+          <t>8:05:32.82 AM</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6216,27 +6216,27 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>8:05:25.22 AM</t>
+          <t>8:05:32.82 AM</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -6251,27 +6251,27 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>8:05:25.82 AM</t>
+          <t>8:05:32.82 AM</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -6286,27 +6286,27 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>8:05:28.02 AM</t>
+          <t>8:05:33.22 AM</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>RC signal weak.;</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -6321,22 +6321,22 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>8:05:31.02 AM</t>
+          <t>8:05:33.22 AM</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6356,27 +6356,27 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>8:05:32.82 AM</t>
+          <t>8:05:33.22 AM</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>RC signal weak.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -6391,27 +6391,27 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>8:05:32.82 AM</t>
+          <t>8:05:33.22 AM</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Aircraft will follow preset action for lost signal.;</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>N24</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -6426,12 +6426,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>8:05:32.82 AM</t>
+          <t>8:05:33.22 AM</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6461,12 +6461,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>8:05:32.82 AM</t>
+          <t>8:05:33.22 AM</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6496,27 +6496,27 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>8:05:33.22 AM</t>
+          <t>8:05:35.82 AM</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>RC signal weak.;</t>
+          <t>Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -6531,27 +6531,27 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>8:05:33.22 AM</t>
+          <t>8:05:35.82 AM</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -6566,27 +6566,27 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>8:05:33.22 AM</t>
+          <t>8:05:45.02 AM</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -6601,22 +6601,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>8:05:33.22 AM</t>
+          <t>8:05:45.02 AM</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Aircraft will follow preset action for lost signal.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>N10</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6636,27 +6636,27 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>8:05:33.22 AM</t>
+          <t>8:05:45.02 AM</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Original route RTH.</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -6671,27 +6671,27 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>8:05:33.22 AM</t>
+          <t>8:05:45.02 AM</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -6706,22 +6706,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>8:05:35.82 AM</t>
+          <t>8:05:45.02 AM</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Flight mode changed to Go Home.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6741,27 +6741,27 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>8:05:35.82 AM</t>
+          <t>8:05:46.42 AM</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Flight mode changed to Go Home.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Flight mode changed to Go Home.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>E28</t>
+          <t>E25</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -6776,22 +6776,22 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>8:05:45.02 AM</t>
+          <t>8:05:47.62 AM</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6811,22 +6811,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>8:05:45.02 AM</t>
+          <t>8:05:47.82 AM</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Original route RTH.</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6846,27 +6846,27 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>8:05:45.02 AM</t>
+          <t>8:05:47.82 AM</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Original route RTH.</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -6881,27 +6881,27 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>8:05:45.02 AM</t>
+          <t>8:05:47.82 AM</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Original route RTH.</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Original route RTH.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -6916,27 +6916,27 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>8:05:46.42 AM</t>
+          <t>8:05:47.82 AM</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Original route RTH.</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Image transmission signal weak.</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>E24</t>
+          <t>E7</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -6951,27 +6951,27 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>8:05:47.62 AM</t>
+          <t>8:05:47.82 AM</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Original route RTH.</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>N14</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -6996,12 +6996,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Original route RTH.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7031,12 +7031,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7056,22 +7056,22 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>8:05:47.82 AM</t>
+          <t>8:05:48.02 AM</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Original route RTH.</t>
+          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7091,27 +7091,27 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>8:05:47.82 AM</t>
+          <t>8:05:48.02 AM</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Original route RTH.</t>
+          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -7126,27 +7126,27 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>8:05:47.82 AM</t>
+          <t>8:05:49.42 AM</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Original route RTH.</t>
+          <t>Failsafe RTH.</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Adjust antennas and make sure they are perpendicular to flight direction of aircraft.;</t>
+          <t>Failsafe RTH.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>N14</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -7161,22 +7161,22 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>8:05:47.82 AM</t>
+          <t>8:05:49.82 AM</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Image transmission signal weak. Adjust antennas and make sure they are perpendicular to flight direction of aircraft.; Original route RTH.</t>
+          <t>Failsafe RTH.</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Original route RTH.</t>
+          <t>Failsafe RTH.</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7196,17 +7196,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>8:05:48.02 AM</t>
+          <t>8:05:53.62 AM</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Image transmission signal weak.; RTH in progress.</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Image transmission signal weak.;</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -7231,22 +7231,22 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>8:05:48.02 AM</t>
+          <t>8:05:53.62 AM</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Image transmission signal weak.; RTH in progress.</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7266,22 +7266,22 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>8:05:49.42 AM</t>
+          <t>8:05:53.62 AM</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Failsafe RTH.</t>
+          <t>Failsafe RTH.; Image transmission signal weak.; RTH in progress.</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Failsafe RTH.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7301,27 +7301,27 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>8:05:49.82 AM</t>
+          <t>8:05:53.62 AM</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Failsafe RTH.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Failsafe RTH.</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E25</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -7336,22 +7336,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>8:05:53.62 AM</t>
+          <t>8:05:59.82 AM</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Image transmission signal weak.; RTH in progress.</t>
+          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Downlink Restored (after 0m 6.2s).</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7371,27 +7371,27 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>8:05:53.62 AM</t>
+          <t>8:05:59.82 AM</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Image transmission signal weak.; RTH in progress.</t>
+          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Downlink Restored (after 0m 6.2s).</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Image transmission signal weak.;</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>E16</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -7406,22 +7406,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>8:05:53.62 AM</t>
+          <t>8:05:59.82 AM</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Image transmission signal weak.; RTH in progress.</t>
+          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Downlink Restored (after 0m 6.2s).</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Downlink Restored (after 0m 6.2s).</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E9</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7441,27 +7441,27 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>8:05:53.62 AM</t>
+          <t>8:05:59.82 AM</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Downlink Restored (after 0m 6.2s).</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>E24</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -7476,27 +7476,27 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>8:05:59.82 AM</t>
+          <t>8:06:00.02 AM</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Downlink Restored (after 0m 6.2s).</t>
+          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -7511,27 +7511,27 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>8:05:59.82 AM</t>
+          <t>8:06:00.02 AM</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Downlink Restored (after 0m 6.2s).</t>
+          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -7546,22 +7546,22 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>8:05:59.82 AM</t>
+          <t>8:06:03.02 AM</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Downlink Restored (after 0m 6.2s).</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 6.2s).</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>E9</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7581,27 +7581,27 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>8:06:00.02 AM</t>
+          <t>8:06:03.02 AM</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -7616,27 +7616,27 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>8:06:00.02 AM</t>
+          <t>8:06:03.02 AM</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -7696,12 +7696,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.;</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -7731,17 +7731,17 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -7766,17 +7766,17 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -7791,22 +7791,22 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>8:06:03.02 AM</t>
+          <t>8:06:04.02 AM</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.; Controller triggered aircraft to fly backward. Auto RTH canceled.</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.;</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7826,22 +7826,22 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>8:06:03.02 AM</t>
+          <t>8:06:04.02 AM</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.; Controller triggered aircraft to fly backward. Auto RTH canceled.</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7871,17 +7871,17 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -7906,12 +7906,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7941,12 +7941,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -7976,17 +7976,17 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.;</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -8011,12 +8011,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.;</t>
+          <t>RTH in progress.;</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -8046,12 +8046,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>RTH in progress.;</t>
+          <t>Controller triggered aircraft to fly backward.</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8081,12 +8081,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to fly backward.</t>
+          <t>Auto RTH canceled.</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8106,22 +8106,22 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>8:06:04.02 AM</t>
+          <t>8:06:04.62 AM</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.; Controller triggered aircraft to fly backward. Auto RTH canceled.</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Auto RTH canceled.</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8141,22 +8141,22 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>8:06:04.62 AM</t>
+          <t>8:06:05.42 AM</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>Failsafe RTH.; Controller triggered aircraft to fly backward. Auto RTH canceled.; RC signal lost. Returning to home.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8186,12 +8186,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Auto RTH canceled.;</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8221,12 +8221,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to fly backward.</t>
+          <t>Returning to home.</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Auto RTH canceled.;</t>
+          <t>Controller triggered aircraft to fly backward.</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>8:06:05.42 AM</t>
+          <t>8:06:05.82 AM</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -8326,12 +8326,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Returning to home.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8361,12 +8361,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Auto RTH canceled.;</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8396,12 +8396,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to fly backward.</t>
+          <t>Returning to home.</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Auto RTH canceled.;</t>
+          <t>Controller triggered aircraft to fly backward.</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -8491,27 +8491,27 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>8:06:05.82 AM</t>
+          <t>8:06:27.42 AM</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Controller triggered aircraft to fly backward. Auto RTH canceled.; RC signal lost. Returning to home.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Returning to home.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -8526,27 +8526,27 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>8:06:27.42 AM</t>
+          <t>8:06:28.22 AM</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>Gimbal pitch axis endpoint reached.; Aircraft braking.</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>Gimbal pitch axis endpoint reached.;</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -8571,17 +8571,17 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Gimbal pitch axis endpoint reached.;</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>E15</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>8:06:28.22 AM</t>
+          <t>8:06:30.02 AM</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -8606,17 +8606,17 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>Gimbal pitch axis endpoint reached.;</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -8641,17 +8641,17 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Gimbal pitch axis endpoint reached.;</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>E15</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -8666,12 +8666,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>8:06:30.02 AM</t>
+          <t>8:06:53.02 AM</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Gimbal pitch axis endpoint reached.; Aircraft braking.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -8701,27 +8701,27 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>8:06:53.02 AM</t>
+          <t>8:06:53.22 AM</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8736,17 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>8:06:53.22 AM</t>
+          <t>8:06:55.02 AM</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>RC signal lost.; Aircraft braking.</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>RC signal lost.;</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -8781,12 +8781,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>RC signal lost.;</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8806,22 +8806,22 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>8:06:55.02 AM</t>
+          <t>8:06:58.22 AM</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.</t>
+          <t>RC signal weak.; RC signal lost.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>RC signal weak.;</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8851,17 +8851,17 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>RC signal weak.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -8876,27 +8876,27 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>8:06:58.22 AM</t>
+          <t>8:07:01.82 AM</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>RC signal weak.; RC signal lost.</t>
+          <t>Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -8921,12 +8921,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8956,17 +8956,17 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -8981,27 +8981,27 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8:07:01.82 AM</t>
+          <t>8:07:04.02 AM</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost.;</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -9016,27 +9016,27 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>8:07:02.22 AM</t>
+          <t>8:07:04.02 AM</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>RC signal lost. Aircraft will follow preset action for lost signal.</t>
+          <t>RC signal lost.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -9051,27 +9051,27 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>8:07:02.22 AM</t>
+          <t>8:07:04.02 AM</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>RC signal lost. Aircraft will follow preset action for lost signal.</t>
+          <t>RC signal lost.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Aircraft will follow preset action for lost signal.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -9096,17 +9096,17 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>RC signal lost.;</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -9121,22 +9121,22 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8:07:04.02 AM</t>
+          <t>8:07:06.22 AM</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>RC signal lost.;</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9156,22 +9156,22 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>8:07:04.02 AM</t>
+          <t>8:07:06.22 AM</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9191,27 +9191,27 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>8:07:04.02 AM</t>
+          <t>8:07:06.22 AM</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -9226,27 +9226,27 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>8:07:05.22 AM</t>
+          <t>8:07:06.22 AM</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>RC signal lost. Aircraft will follow preset action for lost signal.</t>
+          <t>RC signal lost.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Aircraft will follow preset action for lost signal.;</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N24</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -9261,27 +9261,27 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>8:07:05.22 AM</t>
+          <t>8:07:06.22 AM</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>RC signal lost. Aircraft will follow preset action for lost signal.</t>
+          <t>RC signal lost.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Aircraft will follow preset action for lost signal.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -9306,17 +9306,17 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>RC signal lost.;</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -9331,27 +9331,27 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>8:07:06.22 AM</t>
+          <t>8:07:08.02 AM</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost. Returning to home.; Failsafe RTH.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -9366,27 +9366,27 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>8:07:06.22 AM</t>
+          <t>8:07:08.02 AM</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost. Returning to home.; Failsafe RTH.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -9401,27 +9401,27 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>8:07:06.22 AM</t>
+          <t>8:07:08.02 AM</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost. Returning to home.; Failsafe RTH.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Aircraft will follow preset action for lost signal.; RC signal weak.</t>
+          <t>Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>N10</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -9436,22 +9436,22 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>8:07:06.22 AM</t>
+          <t>8:07:08.02 AM</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>RC signal lost.; Aircraft braking.; RC signal lost. Aircraft will follow preset action for lost signal.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal lost. Returning to home.; Failsafe RTH.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9471,27 +9471,27 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>8:07:08.02 AM</t>
+          <t>8:07:09.22 AM</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.; Failsafe RTH.; Flight mode changed to Go Home.</t>
+          <t>Failsafe RTH.</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Failsafe RTH.</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -9506,22 +9506,22 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>8:07:08.02 AM</t>
+          <t>8:07:10.02 AM</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.; Failsafe RTH.; Flight mode changed to Go Home.</t>
+          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Returning to home.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9541,22 +9541,22 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>8:07:08.02 AM</t>
+          <t>8:07:10.02 AM</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.; Failsafe RTH.; Flight mode changed to Go Home.</t>
+          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E3</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -9576,27 +9576,27 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>8:07:08.02 AM</t>
+          <t>8:07:10.02 AM</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.; Failsafe RTH.; Flight mode changed to Go Home.</t>
+          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Flight mode changed to Go Home.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>E28</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -9611,22 +9611,22 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>8:07:09.22 AM</t>
+          <t>8:07:10.02 AM</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Failsafe RTH.</t>
+          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Failsafe RTH.</t>
+          <t>Original route RTH.</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9646,22 +9646,22 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>8:07:10.02 AM</t>
+          <t>8:07:10.62 AM</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.; RTH in progress.</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -9681,27 +9681,27 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>8:07:10.02 AM</t>
+          <t>8:07:10.62 AM</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.; RTH in progress.</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -9716,22 +9716,22 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>8:07:10.02 AM</t>
+          <t>8:07:10.62 AM</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.; RTH in progress.</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Original route RTH.</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9761,12 +9761,12 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Original route RTH.;</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9796,17 +9796,17 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -9831,17 +9831,17 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N17</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -9856,22 +9856,22 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>8:07:10.62 AM</t>
+          <t>8:07:11.02 AM</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.; RTH in progress.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; Original route RTH.; RTH in progress.</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Original route RTH.;</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -9891,22 +9891,22 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>8:07:10.62 AM</t>
+          <t>8:07:11.02 AM</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; Original route RTH.; RTH in progress.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; Original route RTH.; RTH in progress.</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -9936,17 +9936,17 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -9971,17 +9971,17 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -10006,17 +10006,17 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.;</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -10041,17 +10041,17 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Original route RTH.;</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N5</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -10076,12 +10076,12 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.;</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10111,12 +10111,12 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Original route RTH.;</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10136,22 +10136,22 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>8:07:11.02 AM</t>
+          <t>8:07:15.42 AM</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; Original route RTH.; RTH in progress.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10181,12 +10181,12 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10216,17 +10216,17 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -10251,12 +10251,12 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -10286,17 +10286,17 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.;</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -10321,12 +10321,12 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.;</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10356,12 +10356,12 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10626,22 +10626,22 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>8:07:18.02 AM</t>
+          <t>8:07:17.22 AM</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Controller triggered aircraft to fly backward. Auto RTH canceled.; RC signal lost. Returning to home.; RTH in progress.</t>
+          <t>Failsafe RTH.; Controller triggered aircraft to fly backward. Auto RTH canceled.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -10671,12 +10671,12 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to fly backward.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -10811,17 +10811,17 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Controller triggered aircraft to fly backward.</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -10836,27 +10836,27 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>8:07:18.22 AM</t>
+          <t>8:07:18.02 AM</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>Failsafe RTH.; Controller triggered aircraft to fly backward. Auto RTH canceled.; RC signal lost. Returning to home.; RTH in progress.</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Flight mode changed to P-GPS.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -10871,22 +10871,22 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>8:07:19.22 AM</t>
+          <t>8:07:18.22 AM</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Controller triggered aircraft to fly backward. Auto RTH canceled.; RC signal lost. Returning to home.; RTH in progress.</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -10916,12 +10916,12 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to fly backward.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11056,17 +11056,17 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Controller triggered aircraft to fly backward.</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -11081,27 +11081,27 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>8:07:20.02 AM</t>
+          <t>8:07:19.22 AM</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Controller triggered aircraft to fly backward. Auto RTH canceled.; RC signal lost. Returning to home.; RTH in progress.</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -11126,17 +11126,17 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -11151,27 +11151,27 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>8:07:20.22 AM</t>
+          <t>8:07:20.02 AM</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RC signal lost. Aircraft will follow preset action for lost signal.</t>
+          <t>RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -11186,27 +11186,27 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>8:07:20.22 AM</t>
+          <t>8:07:22.02 AM</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RC signal lost. Aircraft will follow preset action for lost signal.</t>
+          <t>RC signal lost.; RC signal weak.</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Aircraft will follow preset action for lost signal.</t>
+          <t>RC signal lost.;</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -11231,12 +11231,12 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>RC signal lost.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11256,22 +11256,22 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>8:07:22.02 AM</t>
+          <t>8:07:26.62 AM</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RC signal lost.; RC signal weak.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>RC signal weak.;</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -11301,12 +11301,12 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>RC signal weak.;</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -11371,17 +11371,17 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -11396,27 +11396,27 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>8:07:26.62 AM</t>
+          <t>8:07:28.02 AM</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.; Aircraft braking.</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.;</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -11441,12 +11441,12 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>RC signal weak.;</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -11466,27 +11466,27 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>8:07:28.02 AM</t>
+          <t>8:07:38.42 AM</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.</t>
+          <t>Failsafe RTH.; Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>Flight mode changed to Go Home.</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -11516,7 +11516,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -11536,22 +11536,22 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>8:07:38.42 AM</t>
+          <t>8:07:40.02 AM</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Flight mode changed to Go Home.</t>
+          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Flight mode changed to Go Home.</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>E28</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -11581,17 +11581,17 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>RC signal lost. Returning to home.</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -11606,27 +11606,27 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>8:07:40.02 AM</t>
+          <t>8:07:41.62 AM</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>RC signal lost.</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -11641,22 +11641,22 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>8:07:40.02 AM</t>
+          <t>8:07:43.02 AM</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.; RC signal lost. Returning to home.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Returning to home.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -11676,22 +11676,22 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>8:07:41.62 AM</t>
+          <t>8:07:43.02 AM</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -11721,17 +11721,17 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -11756,17 +11756,17 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -11791,17 +11791,17 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.;</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -11826,17 +11826,17 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>RTH in progress.</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -11861,12 +11861,12 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.;</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -11886,22 +11886,22 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>8:07:43.02 AM</t>
+          <t>8:07:44.42 AM</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
+          <t>Failsafe RTH.</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>RTH in progress.</t>
+          <t>Failsafe RTH.</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>8:07:44.42 AM</t>
+          <t>8:07:45.02 AM</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -11956,22 +11956,22 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>8:07:45.02 AM</t>
+          <t>8:07:45.42 AM</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Failsafe RTH.</t>
+          <t>Failsafe RTH.; Press Brake button to cancel RTH.; RC signal lost. Returning to home.; RTH in progress.</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Failsafe RTH.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N13</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -12001,12 +12001,12 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Press Brake button to cancel RTH.;</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -12036,17 +12036,17 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Press Brake button to cancel RTH.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>E0</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -12071,17 +12071,17 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>N17</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -12141,12 +12141,12 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to fly backward.</t>
+          <t>Auto RTH canceled.</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -12176,7 +12176,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Auto RTH canceled.</t>
+          <t>Controller triggered aircraft to fly backward.</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>E20</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>RC signal lost. Returning to home.;</t>
+          <t>RC signal lost.</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>E17</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -12551,22 +12551,22 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>8:07:48.02 AM</t>
+          <t>8:07:47.42 AM</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Failsafe RTH.; Controller triggered aircraft to fly backward. Auto RTH canceled.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Failsafe RTH.; Controller triggered aircraft to fly backward. Auto RTH canceled.; RC signal lost. Returning to home.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.; RTH in progress.</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Failsafe RTH.;</t>
+          <t>Returning to home.;</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>N3</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -12596,12 +12596,12 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Controller triggered aircraft to fly backward.</t>
+          <t>Failsafe RTH.;</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -12701,12 +12701,12 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>Controller triggered aircraft to fly backward.</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E22</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -12726,27 +12726,27 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>8:07:48.62 AM</t>
+          <t>8:07:48.02 AM</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Failsafe RTH.; Controller triggered aircraft to fly backward. Auto RTH canceled.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>8:07:49.02 AM</t>
+          <t>8:07:48.62 AM</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -12796,22 +12796,22 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>8:07:55.22 AM</t>
+          <t>8:07:49.02 AM</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Aircraft braking.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -12831,7 +12831,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>8:08:26.62 AM</t>
+          <t>8:07:55.22 AM</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -12866,22 +12866,22 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>8:08:32.02 AM</t>
+          <t>8:08:26.62 AM</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Aircraft braking.</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12901,22 +12901,22 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>8:08:34.62 AM</t>
+          <t>8:08:32.02 AM</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>RC signal weak.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -12946,12 +12946,12 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>RC signal weak.;</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -12981,12 +12981,12 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13016,17 +13016,17 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>8:08:37.62 AM</t>
+          <t>8:08:34.62 AM</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -13051,17 +13051,17 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>RC signal weak.;</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -13086,12 +13086,12 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>RC signal weak.;</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -13121,12 +13121,12 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -13156,17 +13156,17 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -13181,27 +13181,27 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>8:08:40.62 AM</t>
+          <t>8:08:37.62 AM</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -13216,22 +13216,22 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>8:08:43.62 AM</t>
+          <t>8:08:40.62 AM</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>RC signal weak.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -13261,12 +13261,12 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>RC signal weak.;</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -13296,12 +13296,12 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -13331,17 +13331,17 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>8:08:46.02 AM</t>
+          <t>8:08:43.62 AM</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -13366,17 +13366,17 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>RC signal weak.;</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -13401,12 +13401,12 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Aircraft braking.;</t>
+          <t>RC signal weak.;</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -13436,12 +13436,12 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Aircraft braking.;</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -13471,17 +13471,17 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Avoid blocking antennas and adjust antenna orientation.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -13496,27 +13496,27 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>8:08:53.02 AM</t>
+          <t>8:08:46.02 AM</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>RC signal weak.; Aircraft braking.; RC signal weak. Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>RC signal weak.</t>
+          <t>Avoid blocking antennas and adjust antenna orientation.</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>E7</t>
+          <t>N11</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -13531,27 +13531,27 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>8:09:50.42 AM</t>
+          <t>8:08:53.02 AM</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Auto landing in progress.; Press brake button to cancel landing.; Flight mode changed to Auto Landing.</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Auto landing in progress.;</t>
+          <t>RC signal weak.</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>E18</t>
+          <t>E6</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>low</t>
         </is>
       </c>
     </row>
@@ -13576,12 +13576,12 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Press brake button to cancel landing.;</t>
+          <t>Auto landing in progress.;</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>E4</t>
+          <t>E20</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -13611,12 +13611,12 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Flight mode changed to Auto Landing.</t>
+          <t>Press brake button to cancel landing.;</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>E29</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -13636,25 +13636,60 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
+          <t>8:09:50.42 AM</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Auto landing in progress.; Press brake button to cancel landing.; Flight mode changed to Auto Landing.</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Flight mode changed to Auto Landing.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>E29</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>5/12/2025</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
           <t>8:10:03.32 AM</t>
         </is>
       </c>
-      <c r="D378" t="inlineStr">
+      <c r="D379" t="inlineStr">
         <is>
           <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
-      <c r="E378" t="inlineStr">
+      <c r="E379" t="inlineStr">
         <is>
           <t>Flight mode changed to P-GPS.</t>
         </is>
       </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t>E20</t>
-        </is>
-      </c>
-      <c r="G378" t="inlineStr">
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
